--- a/materials/rest_api.xlsx
+++ b/materials/rest_api.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="235" yWindow="111" windowWidth="14802" windowHeight="8017"/>
+    <workbookView xWindow="235" yWindow="111" windowWidth="14802" windowHeight="8017" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -179,12 +180,6 @@
   </si>
   <si>
     <t>Получить все комментарии для задачи issue_id</t>
-  </si>
-  <si>
-    <t>Получить конкретный comment_id для задачи issue_id</t>
-  </si>
-  <si>
-    <t>Удалить все комментарии для задачи issue_id</t>
   </si>
   <si>
     <r>
@@ -285,38 +280,120 @@
     <t>Comments</t>
   </si>
   <si>
-    <t xml:space="preserve"> /login</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /register</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /projects/:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /issues/:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /issues/:issue_id/comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /issues/:issue_id/comments/:comment_id</t>
+    <t xml:space="preserve">   /login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /projects/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /issues/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /issues/:issue_id/comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /issues/:issue_id/comments/:comment_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /users/:id</t>
+  </si>
+  <si>
+    <t>Создать нового пользователя</t>
+  </si>
+  <si>
+    <t>Получить всех пользователей</t>
+  </si>
+  <si>
+    <t>Получить пользователя по id</t>
+  </si>
+  <si>
+    <t>Если существует обновить пользователя. 
+Если не существует то Error</t>
+  </si>
+  <si>
+    <t>Удалить конкретного пользователя</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>/users/:id</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>getAll</t>
+  </si>
+  <si>
+    <t>getOne</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если существует обновить пользователя. </t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>/projects</t>
+  </si>
+  <si>
+    <t>/projects/:id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +421,15 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -466,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -486,6 +572,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -498,27 +605,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -851,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G42"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -882,105 +980,104 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="29.1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="72.7" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="29.1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="72.7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="29.1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>15</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -992,41 +1089,41 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>19</v>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
+      <c r="B11" s="15"/>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1037,165 +1134,190 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="72.7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="16" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>27</v>
+      <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="43.65" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="72.7" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1271,14 +1393,228 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="26.35" x14ac:dyDescent="0.45">
+      <c r="B2" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="26.35" x14ac:dyDescent="0.45">
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="18"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>